--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>DATE</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Hart</t>
+  </si>
+  <si>
+    <t>Trial A. Trial</t>
+  </si>
+  <si>
+    <t>Hart Hart</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -575,6 +584,23 @@
         <v>234541</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>243233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -63,43 +63,10 @@
     <t>Kelly A. Marinduque</t>
   </si>
   <si>
-    <t>Mynimo</t>
-  </si>
-  <si>
-    <t>Data Analyst</t>
-  </si>
-  <si>
-    <t>Trial T. Trial</t>
-  </si>
-  <si>
-    <t>Walk-in</t>
-  </si>
-  <si>
-    <t>Graphic Designer</t>
-  </si>
-  <si>
-    <t>Trial Again T. Trial</t>
-  </si>
-  <si>
-    <t>Ads</t>
-  </si>
-  <si>
-    <t>Content Writer</t>
-  </si>
-  <si>
-    <t>Imong Heart</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>Trial A. Trial</t>
-  </si>
-  <si>
     <t>Hart Hart</t>
   </si>
   <si>
-    <t>System Administrator</t>
+    <t>Fiber Technician</t>
   </si>
 </sst>
 </file>
@@ -435,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,105 +467,41 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>42913</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>1234334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>42913</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>42913</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>21341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>42913</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>42913</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>234541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>42913</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>243233</v>
+      <c r="E9">
+        <v>23434</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Fiber Technician</t>
+  </si>
+  <si>
+    <t>EW R. EW</t>
+  </si>
+  <si>
+    <t>Hartuu</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -504,6 +510,23 @@
         <v>23434</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>TECHNICAL EXAM</t>
+  </si>
   <si>
     <t>DATE</t>
   </si>
@@ -27,13 +30,13 @@
     <t>APPLICANT'S NAME</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>POSITION APPLIED</t>
-  </si>
-  <si>
-    <t>CONTACT NUMBER</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITION APPLIED </t>
+  </si>
+  <si>
+    <t>Contact Number</t>
   </si>
   <si>
     <t>TYPING TEST</t>
@@ -42,44 +45,38 @@
     <t>COMPREHENSIVE EXAM</t>
   </si>
   <si>
-    <t>COMMUNICATION</t>
-  </si>
-  <si>
-    <t>VOCABULARY</t>
-  </si>
-  <si>
-    <t>LOGIC</t>
-  </si>
-  <si>
-    <t>TECHNICAL EXAM</t>
-  </si>
-  <si>
-    <t>MATHEMATICS</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
-    <t>Kelly A. Marinduque</t>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Kelly Marinduque</t>
   </si>
   <si>
     <t>Hart Hart</t>
   </si>
   <si>
     <t>Fiber Technician</t>
-  </si>
-  <si>
-    <t>EW R. EW</t>
-  </si>
-  <si>
-    <t>Hartuu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +92,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -105,12 +110,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,16 +123,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,123 +483,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>42913</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42914</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>23434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>42913</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>343</v>
+      <c r="E2">
+        <v>2454</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>TECHNICAL EXAM</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Fiber Technician</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>Leah Mahusay</t>
+  </si>
+  <si>
+    <t>Referral</t>
   </si>
 </sst>
 </file>
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +580,40 @@
         <v>2454</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>565434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>124325434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>TECHNICAL EXAM</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Referral</t>
+  </si>
+  <si>
+    <t>Maureen Gwapa</t>
+  </si>
+  <si>
+    <t>Walk-in</t>
   </si>
 </sst>
 </file>
@@ -495,26 +501,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
   </cols>
@@ -614,6 +620,23 @@
         <v>124325434</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>5645645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>TECHNICAL EXAM</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Walk-in</t>
+  </si>
+  <si>
+    <t>Naruto Uzumaki</t>
+  </si>
+  <si>
+    <t>HOIT Website</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -637,6 +643,40 @@
         <v>5645645</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>6534663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>6534663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>TECHNICAL EXAM</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>HOIT Website</t>
+  </si>
+  <si>
+    <t>JObstreet</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -677,6 +680,23 @@
         <v>6534663</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>943254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>TECHNICAL EXAM</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>JObstreet</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -697,6 +700,40 @@
         <v>943254</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42920</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>9233233212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42920</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>9233233212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TECHNICAL EXAM</t>
   </si>
@@ -61,45 +61,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>Kelly Marinduque</t>
-  </si>
-  <si>
-    <t>Hart Hart</t>
-  </si>
-  <si>
-    <t>Fiber Technician</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>System Administrator</t>
-  </si>
-  <si>
-    <t>Leah Mahusay</t>
-  </si>
-  <si>
-    <t>Referral</t>
-  </si>
-  <si>
-    <t>Maureen Gwapa</t>
-  </si>
-  <si>
-    <t>Walk-in</t>
-  </si>
-  <si>
-    <t>Naruto Uzumaki</t>
-  </si>
-  <si>
-    <t>HOIT Website</t>
-  </si>
-  <si>
-    <t>JObstreet</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
   </si>
 </sst>
 </file>
@@ -513,17 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
@@ -582,157 +543,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42914</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>565434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>124325434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>5645645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>6534663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>6534663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>943254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42920</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>9233233212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42920</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>9233233212</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TECHNICAL EXAM</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Kelly Marinduque</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Fiber Technician</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>42922</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>9123435578</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -63,10 +63,10 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Kelly Marinduque</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
+    <t>Sakura Haruno</t>
+  </si>
+  <si>
+    <t>HOIT Website</t>
   </si>
   <si>
     <t>Fiber Technician</t>
@@ -486,7 +486,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="A2:L2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42922</v>
+        <v>42923</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="E2">
-        <v>9123435578</v>
+        <v>912343134</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TECHNICAL EXAM</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Fiber Technician</t>
+  </si>
+  <si>
+    <t>Kelly Marinduque</t>
+  </si>
+  <si>
+    <t>Walk-in</t>
+  </si>
+  <si>
+    <t>Organizational  Development Trainer</t>
   </si>
 </sst>
 </file>
@@ -483,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -568,6 +577,23 @@
         <v>912343134</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42927</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>912312321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -503,8 +503,8 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
